--- a/Results/Technosphere flows impact.xlsx
+++ b/Results/Technosphere flows impact.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2AF26-D016-4F9A-98F5-9D55533780AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-25310" yWindow="3030" windowWidth="25420" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,10 +208,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -279,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -290,10 +291,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -302,10 +303,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -317,22 +318,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,21 +633,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I36" sqref="D36:I43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="F37:I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="5" max="9" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -686,7 +710,7 @@
         <v>10.700439523518201</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -715,7 +739,7 @@
         <v>10.0135426129946</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -744,7 +768,7 @@
         <v>10.5194291741802</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -773,7 +797,7 @@
         <v>9.8354375015277995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -802,7 +826,7 @@
         <v>8.6020915615052901E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -831,7 +855,7 @@
         <v>5.7363386022858003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -860,7 +884,7 @@
         <v>2.3971761012517101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -889,7 +913,7 @@
         <v>154.67167446511601</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -947,7 +971,7 @@
         <v>10.700439523518201</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>8.6020915615052901E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1029,7 @@
         <v>5.7363386022858003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1034,9 +1058,9 @@
         <v>154.67167446511601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="C27" s="17"/>
       <c r="D27" s="11" t="s">
         <v>21</v>
       </c>
@@ -1059,8 +1083,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="14"/>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="18"/>
       <c r="D28" s="12" t="s">
         <v>29</v>
       </c>
@@ -1083,8 +1107,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="15" t="s">
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.35">
+      <c r="C29" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="10">
@@ -1096,21 +1120,21 @@
       <c r="F29" s="10">
         <v>13.92</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="14">
         <v>2</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <v>28.7</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="14">
         <v>0.61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="15" t="s">
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.35">
+      <c r="C30" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="10">
@@ -1122,21 +1146,21 @@
       <c r="F30" s="10">
         <v>0.06</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <v>0.13300000000000001</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C31" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="10">
@@ -1148,21 +1172,21 @@
       <c r="F31" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="14">
         <v>2E-3</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="17" t="s">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="12">
@@ -1174,175 +1198,189 @@
       <c r="F32" s="12">
         <v>72.599999999999994</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>5.3</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>5</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <v>10130</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="16">
         <v>8.5</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="4:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15" t="s">
+    <row r="36" spans="3:10" ht="17" x14ac:dyDescent="0.35">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="11" t="s">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="F37" s="23">
+        <v>0.78722209035190305</v>
+      </c>
+      <c r="G37" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="21">
         <v>2E-3</v>
       </c>
-      <c r="I37" s="12">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="11" t="s">
+      <c r="I37" s="23">
+        <v>-9.0791143431908097</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D38" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="10">
-        <v>3.87</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="F38" s="23">
+        <v>3.8671057331723699</v>
+      </c>
+      <c r="G38" s="21">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="21">
         <v>2.3E-2</v>
       </c>
-      <c r="I38" s="12">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="11" t="s">
+      <c r="I38" s="23">
+        <v>54.163702513848001</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="10">
-        <v>13.92</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="F39" s="23">
+        <v>13.9185139017716</v>
+      </c>
+      <c r="G39" s="21">
         <v>0.06</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="21">
         <v>1.9E-2</v>
       </c>
-      <c r="I39" s="12">
-        <v>72.599999999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="11" t="s">
+      <c r="I39" s="23">
+        <v>72.6114532941899</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="3:10" ht="28" x14ac:dyDescent="0.35">
+      <c r="C40" s="3"/>
+      <c r="D40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G40" s="16">
+      <c r="F40" s="24">
+        <v>0.57649924473367997</v>
+      </c>
+      <c r="G40" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I40" s="18">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="11" t="s">
+      <c r="I40" s="24">
+        <v>5.2987035773783404</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C41" s="3"/>
+      <c r="D41" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="16">
-        <v>2</v>
-      </c>
-      <c r="G41" s="16">
+      <c r="F41" s="24">
+        <v>2.0011945371314801</v>
+      </c>
+      <c r="G41" s="22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="22">
         <v>2E-3</v>
       </c>
-      <c r="I41" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="11" t="s">
+      <c r="I41" s="24">
+        <v>5.0018762814576903</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C42" s="3"/>
+      <c r="D42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="16">
-        <v>28.7</v>
-      </c>
-      <c r="G42" s="16">
+      <c r="F42" s="24">
+        <v>28.7013560925704</v>
+      </c>
+      <c r="G42" s="22">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="22">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I42" s="18">
-        <v>10130</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="11" t="s">
+      <c r="I42" s="24">
+        <v>10129.9632201779</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="3:10" ht="16" x14ac:dyDescent="0.35">
+      <c r="C43" s="3"/>
+      <c r="D43" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="16">
-        <v>0.61</v>
-      </c>
-      <c r="G43" s="16">
+      <c r="F43" s="24">
+        <v>0.61367924701679999</v>
+      </c>
+      <c r="G43" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I43" s="18">
-        <v>8.5</v>
-      </c>
+      <c r="I43" s="24">
+        <v>8.5237194106483702</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
